--- a/20170908周报/技术支撑服务人员周报日报-20170908.xlsx
+++ b/20170908周报/技术支撑服务人员周报日报-20170908.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="396" windowWidth="18084" windowHeight="6420"/>
+    <workbookView windowWidth="28455" windowHeight="12045"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
   <si>
     <t>项目名称</t>
   </si>
@@ -43,6 +43,9 @@
     <t>输出物</t>
   </si>
   <si>
+    <t>咪咕音乐运维系统</t>
+  </si>
+  <si>
     <t>刘韬</t>
   </si>
   <si>
@@ -52,12 +55,13 @@
     <t>北京烽火</t>
   </si>
   <si>
-    <t>北京烽火</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>杜智恒</t>
+  </si>
+  <si>
+    <t>咪咕音乐后台</t>
   </si>
   <si>
     <t>凌河源</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>陆晨曦</t>
@@ -66,50 +70,38 @@
     <t>赵小平</t>
   </si>
   <si>
+    <t>陈毅昌</t>
+  </si>
+  <si>
     <t>王琪</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>范小燕</t>
+  </si>
+  <si>
+    <t>罗健</t>
+  </si>
+  <si>
+    <t>周小龙</t>
+  </si>
+  <si>
+    <t>张文韬</t>
   </si>
   <si>
     <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈毅昌</t>
-  </si>
-  <si>
-    <t>咪咕音乐后台</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>咪咕音乐后台</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>咪咕音乐运维系统</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>杜智恒</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>范小燕</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>罗健</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>周小龙</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,38 +136,168 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -184,12 +306,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -223,18 +531,266 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -248,31 +804,72 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -563,293 +1160,312 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" customWidth="1"/>
-    <col min="6" max="6" width="23.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.44140625" customWidth="1"/>
-    <col min="8" max="8" width="53.77734375" customWidth="1"/>
+    <col min="1" max="1" width="16.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="11.4416666666667" customWidth="1"/>
+    <col min="3" max="3" width="15.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="15.775" customWidth="1"/>
+    <col min="5" max="5" width="21.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="23.1083333333333" customWidth="1"/>
+    <col min="7" max="7" width="48.4416666666667" customWidth="1"/>
+    <col min="8" max="8" width="53.775" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="49.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" ht="49.2" customHeight="1" spans="1:8">
+      <c r="A2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" ht="34.8" customHeight="1" spans="1:8">
+      <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" ht="17.25" spans="1:8">
+      <c r="A4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" ht="34.5" spans="1:8">
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" ht="34.5" spans="1:8">
+      <c r="A6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" ht="34.5" spans="1:8">
+      <c r="A7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" ht="17.25" spans="1:8">
+      <c r="A8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" ht="17.25" spans="1:8">
+      <c r="A9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" ht="17.25" spans="1:8">
+      <c r="A10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="D10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" ht="17.25" spans="1:8">
+      <c r="A11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" spans="1:8" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" ht="17.25" spans="1:8">
+      <c r="A12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A11"/>
+      <selection activeCell="A1" sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A11"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/20170908周报/技术支撑服务人员周报日报-20170908.xlsx
+++ b/20170908周报/技术支撑服务人员周报日报-20170908.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\weekReport\20170908周报\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28455" windowHeight="12045"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
   <si>
     <t>项目名称</t>
   </si>
@@ -93,18 +88,29 @@
     <t>张文韬</t>
   </si>
   <si>
+    <t>1.查看Migu2.0项目相关组件
+2.分析现已有的数据模型
+3.分析模型转换器的转换流程
+4.记录Redis缓存CacheKey的生成规则</t>
+  </si>
+  <si>
+    <t>李春荣</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
-  </si>
-  <si>
-    <t>李春荣</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,37 +145,162 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -178,12 +309,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -217,18 +534,266 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -242,38 +807,76 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -560,19 +1163,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="16.375" customWidth="1"/>
     <col min="2" max="2" width="11.5" customWidth="1"/>
@@ -584,305 +1187,312 @@
     <col min="8" max="8" width="53.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="49.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+    <row r="2" ht="49.15" customHeight="1" spans="1:8">
+      <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="1:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" ht="34.9" customHeight="1" spans="1:8">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" ht="17.25" spans="1:8">
+      <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" ht="34.5" spans="1:8">
+      <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" ht="34.5" spans="1:8">
+      <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" ht="34.5" spans="1:8">
+      <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" ht="17.25" spans="1:8">
+      <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" ht="17.25" spans="1:8">
+      <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" ht="17.25" spans="1:8">
+      <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" ht="17.25" spans="1:8">
+      <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" ht="68" customHeight="1" spans="1:8">
+      <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="4" t="s">
+      <c r="E12" s="6">
+        <v>20170904</v>
+      </c>
+      <c r="F12" s="6">
+        <v>20170908</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" ht="17.25" spans="1:8">
+      <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A11"/>
+      <selection activeCell="A1" sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="11"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="11"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="11"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="11"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="11"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="11"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="11"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="11"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="11"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="11"/>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A11"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/20170908周报/技术支撑服务人员周报日报-20170908.xlsx
+++ b/20170908周报/技术支撑服务人员周报日报-20170908.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
   <si>
     <t>项目名称</t>
   </si>
@@ -73,6 +73,13 @@
     <t>陈毅昌</t>
   </si>
   <si>
+    <t>1.修复线上bug。
+2.彩铃页面重构完成。</t>
+  </si>
+  <si>
+    <t>代码</t>
+  </si>
+  <si>
     <t>王琪</t>
   </si>
   <si>
@@ -86,37 +93,40 @@
   </si>
   <si>
     <t>张文韬</t>
-  </si>
-  <si>
-    <t>李春荣</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
-  </si>
-  <si>
-    <t>曾昌林</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>1.查看Migu2.0项目相关组件
 2.分析现已有的数据模型
 3.分析模型转换器的转换流程
 4.记录Redis缓存CacheKey的生成规则</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>李春荣</t>
+  </si>
+  <si>
+    <t>曾昌林</t>
   </si>
   <si>
     <t>1.个人铃音库修改界面和后台走审核流程
 2.登录验证码
 3.配置项多台服务器刷新
 4.铃音订购bug修改</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,24 +168,155 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -184,12 +325,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -223,18 +550,266 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -254,28 +829,69 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -566,19 +1182,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="16.375" customWidth="1"/>
     <col min="2" max="2" width="11.5" customWidth="1"/>
@@ -590,335 +1206,340 @@
     <col min="8" max="8" width="53.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="49.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+    <row r="2" ht="49.15" customHeight="1" spans="1:8">
+      <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="1:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" ht="34.9" customHeight="1" spans="1:8">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" ht="17.25" spans="1:8">
+      <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" ht="34.5" spans="1:8">
+      <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" ht="34.5" spans="1:8">
+      <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" ht="34.5" spans="1:8">
+      <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" ht="17.25" spans="1:8">
+      <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="C8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" ht="17.25" spans="1:8">
+      <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="C9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" ht="17.25" spans="1:8">
+      <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="C10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" ht="17.25" spans="1:8">
+      <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="C11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" ht="68.1" customHeight="1" spans="1:8">
+      <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="C12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="6">
         <v>20170904</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="6">
         <v>20170908</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" ht="17.25" spans="1:8">
+      <c r="A13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="4" t="s">
+      <c r="D13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" ht="69" spans="1:8">
+      <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="4" t="s">
+      <c r="C14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:8" ht="69" x14ac:dyDescent="0.15">
-      <c r="A14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="4">
+      <c r="E14" s="6">
         <v>20170904</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="6">
         <v>20170908</v>
       </c>
-      <c r="G14" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="4"/>
+      <c r="G14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A11"/>
+      <selection activeCell="A1" sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="11"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="11"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="11"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="11"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="11"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="11"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="11"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="11"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="11"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="11"/>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A11"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/20170908周报/技术支撑服务人员周报日报-20170908.xlsx
+++ b/20170908周报/技术支撑服务人员周报日报-20170908.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\周报\新建文件夹\weekReport\20170908周报\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="32">
   <si>
     <t>项目名称</t>
   </si>
@@ -115,18 +120,22 @@
   <si>
     <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
   </si>
+  <si>
+    <t>1.视频彩铃测试上线
+2.咪咕召唤师活动需求开发
+3.长沙易度公司接入重庆流量充值</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,7 +146,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -148,6 +163,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
@@ -168,155 +189,26 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -325,198 +217,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -550,259 +256,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -810,92 +274,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 3" xfId="50"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 3" xfId="2"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1182,57 +603,58 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.375" customWidth="1"/>
-    <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="15.625" customWidth="1"/>
-    <col min="4" max="4" width="15.75" customWidth="1"/>
-    <col min="5" max="5" width="21.625" customWidth="1"/>
-    <col min="6" max="6" width="23.125" customWidth="1"/>
-    <col min="7" max="7" width="48.5" customWidth="1"/>
-    <col min="8" max="8" width="53.75" customWidth="1"/>
+    <col min="1" max="1" width="16.375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="10" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="15.75" style="10" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="23.125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="48.5" style="10" customWidth="1"/>
+    <col min="8" max="8" width="53.75" style="10" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:8">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="49.15" customHeight="1" spans="1:8">
+    <row r="2" spans="1:8" ht="49.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
@@ -1250,7 +672,7 @@
       <c r="G2" s="8"/>
       <c r="H2" s="9"/>
     </row>
-    <row r="3" ht="34.9" customHeight="1" spans="1:8">
+    <row r="3" spans="1:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -1268,7 +690,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" ht="17.25" spans="1:8">
+    <row r="4" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
@@ -1281,12 +703,20 @@
       <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9"/>
-    </row>
-    <row r="5" ht="34.5" spans="1:8">
+      <c r="E4" s="6">
+        <v>20170904</v>
+      </c>
+      <c r="F4" s="6">
+        <v>20170908</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
@@ -1304,7 +734,7 @@
       <c r="G5" s="8"/>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" ht="34.5" spans="1:8">
+    <row r="6" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
@@ -1322,7 +752,7 @@
       <c r="G6" s="8"/>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" ht="34.5" spans="1:8">
+    <row r="7" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
@@ -1337,14 +767,14 @@
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="11" t="s">
         <v>18</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" ht="17.25" spans="1:8">
+    <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
@@ -1362,14 +792,14 @@
       <c r="G8" s="8"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" ht="17.25" spans="1:8">
+    <row r="9" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="12" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="5" t="s">
@@ -1380,14 +810,14 @@
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" ht="17.25" spans="1:8">
+    <row r="10" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -1398,7 +828,7 @@
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" ht="17.25" spans="1:8">
+    <row r="11" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
@@ -1416,7 +846,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" ht="68.1" customHeight="1" spans="1:8">
+    <row r="12" spans="1:8" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
@@ -1435,12 +865,12 @@
       <c r="F12" s="6">
         <v>20170908</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="13" t="s">
         <v>25</v>
       </c>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" ht="17.25" spans="1:8">
+    <row r="13" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
@@ -1458,7 +888,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" ht="69" spans="1:8">
+    <row r="14" spans="1:8" ht="69" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
@@ -1477,69 +907,68 @@
       <c r="F14" s="6">
         <v>20170908</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="13" t="s">
         <v>28</v>
       </c>
       <c r="H14" s="6"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A11"/>
+      <selection sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A11"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/20170908周报/技术支撑服务人员周报日报-20170908.xlsx
+++ b/20170908周报/技术支撑服务人员周报日报-20170908.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
-  <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\周报\新建文件夹\weekReport\20170908周报\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="33">
   <si>
     <t>项目名称</t>
   </si>
@@ -130,11 +125,16 @@
     <t>代码</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>1.演唱会互动栏目接口代码开发及单元测试
+2.我的排名和贡献值排行榜接口优化调测</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -266,14 +266,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -302,6 +296,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -612,305 +615,313 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="10" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="15.75" style="10" customWidth="1"/>
-    <col min="5" max="5" width="21.625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="48.5" style="10" customWidth="1"/>
-    <col min="8" max="8" width="53.75" style="10" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="16.375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="8" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="15.75" style="8" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="23.125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="48.5" style="8" customWidth="1"/>
+    <col min="8" max="8" width="53.75" style="8" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="49.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9"/>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9"/>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="7"/>
     </row>
     <row r="4" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="6">
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4">
         <v>20170904</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="4">
         <v>20170908</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
+      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9"/>
+      <c r="D6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="11" t="s">
+      <c r="D7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
+      <c r="D8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="12" t="s">
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
+      <c r="D9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="12" t="s">
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="4">
+        <v>20170904</v>
+      </c>
+      <c r="F10" s="4">
+        <v>20170908</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+      <c r="D11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="6">
+      <c r="D12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="4">
         <v>20170904</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="4">
         <v>20170908</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="6"/>
+      <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="B13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="D13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8" ht="69" x14ac:dyDescent="0.15">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="B14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="6">
+      <c r="D14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="4">
         <v>20170904</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="4">
         <v>20170908</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="6"/>
+      <c r="H14" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -930,39 +941,39 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="12" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2"/>
+      <c r="A2" s="13"/>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
+      <c r="A3" s="13"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
+      <c r="A4" s="13"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2"/>
+      <c r="A5" s="13"/>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
+      <c r="A6" s="13"/>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
+      <c r="A7" s="13"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="2"/>
+      <c r="A8" s="13"/>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="2"/>
+      <c r="A9" s="13"/>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="2"/>
+      <c r="A10" s="13"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="2"/>
+      <c r="A11" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/20170908周报/技术支撑服务人员周报日报-20170908.xlsx
+++ b/20170908周报/技术支撑服务人员周报日报-20170908.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
   <si>
     <t>项目名称</t>
   </si>
@@ -64,6 +64,14 @@
     <t>凌河源</t>
   </si>
   <si>
+    <t>1.视频彩铃测试上线
+2.咪咕召唤师活动需求开发
+3.长沙易度公司接入重庆流量充值</t>
+  </si>
+  <si>
+    <t>代码</t>
+  </si>
+  <si>
     <t>陆晨曦</t>
   </si>
   <si>
@@ -77,9 +85,6 @@
 2.彩铃页面重构完成。</t>
   </si>
   <si>
-    <t>代码</t>
-  </si>
-  <si>
     <t>王琪</t>
   </si>
   <si>
@@ -87,6 +92,10 @@
   </si>
   <si>
     <t>罗健</t>
+  </si>
+  <si>
+    <t>1.演唱会互动栏目接口代码开发及单元测试
+2.我的排名和贡献值排行榜接口优化调测</t>
   </si>
   <si>
     <t>周小龙</t>
@@ -115,27 +124,18 @@
   <si>
     <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
   </si>
-  <si>
-    <t>1.视频彩铃测试上线
-2.咪咕召唤师活动需求开发
-3.长沙易度公司接入重庆流量充值</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.演唱会互动栏目接口代码开发及单元测试
-2.我的排名和贡献值排行榜接口优化调测</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,13 +146,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -163,12 +157,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
@@ -189,26 +177,155 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -217,12 +334,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -256,70 +559,356 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -606,380 +1195,385 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="16.375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="8" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="15.75" style="8" customWidth="1"/>
-    <col min="5" max="5" width="21.625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="48.5" style="8" customWidth="1"/>
-    <col min="8" max="8" width="53.75" style="8" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="16.375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.75" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="23.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="48.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="53.75" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="49.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+    <row r="2" ht="49.15" customHeight="1" spans="1:8">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="1:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" ht="34.9" customHeight="1" spans="1:8">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" ht="51.75" spans="1:8">
+      <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="7">
         <v>20170904</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="7">
         <v>20170908</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" ht="34.5" spans="1:8">
+      <c r="A5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" ht="34.5" spans="1:8">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" ht="34.5" spans="1:8">
+      <c r="A7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="7">
+        <v>20170904</v>
+      </c>
+      <c r="F7" s="7">
+        <v>20170908</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" ht="17.25" spans="1:8">
+      <c r="A8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" ht="17.25" spans="1:8">
+      <c r="A9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" ht="34.5" spans="1:8">
+      <c r="A10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="7">
+        <v>20170904</v>
+      </c>
+      <c r="F10" s="7">
+        <v>20170908</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" ht="17.25" spans="1:8">
+      <c r="A11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" ht="68.1" customHeight="1" spans="1:8">
+      <c r="A12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="7">
+        <v>20170904</v>
+      </c>
+      <c r="F12" s="7">
+        <v>20170908</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" ht="17.25" spans="1:8">
+      <c r="A13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" ht="69" spans="1:8">
+      <c r="A14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="7">
+        <v>20170904</v>
+      </c>
+      <c r="F14" s="7">
+        <v>20170908</v>
+      </c>
+      <c r="G14" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="4">
-        <v>20170904</v>
-      </c>
-      <c r="F10" s="4">
-        <v>20170908</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="4">
-        <v>20170904</v>
-      </c>
-      <c r="F12" s="4">
-        <v>20170908</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:8" ht="69" x14ac:dyDescent="0.15">
-      <c r="A14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="4">
-        <v>20170904</v>
-      </c>
-      <c r="F14" s="4">
-        <v>20170908</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="4"/>
+      <c r="H14" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A11"/>
+      <selection activeCell="A1" sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="13"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="13"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="13"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="13"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="13"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="13"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="13"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="13"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="13"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="13"/>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A11"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/20170908周报/技术支撑服务人员周报日报-20170908.xlsx
+++ b/20170908周报/技术支撑服务人员周报日报-20170908.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\weekReport\20170908周报\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="13050"/>
   </bookViews>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="30">
   <si>
     <t>项目名称</t>
   </si>
@@ -88,13 +93,17 @@
     <t>张文韬</t>
   </si>
   <si>
-    <t>李春荣</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
   </si>
   <si>
     <t>曾昌林</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.个人铃音库修改界面和后台走审核流程
+2.登录验证码
+3.配置项多台服务器刷新
+4.铃音订购bug修改</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -105,17 +114,24 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>1.个人铃音库修改界面和后台走审核流程
-2.登录验证码
-3.配置项多台服务器刷新
-4.铃音订购bug修改</t>
+    <t>李春荣</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.修改bug
+2.代码优化
+3.熟悉模板</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -260,14 +276,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -280,6 +296,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -328,7 +347,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -361,9 +380,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -396,6 +432,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -574,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -721,7 +774,7 @@
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="12"/>
+      <c r="G7" s="10"/>
       <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
@@ -820,7 +873,7 @@
       </c>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
@@ -828,15 +881,23 @@
         <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="E13" s="4">
+        <v>20170904</v>
+      </c>
+      <c r="F13" s="4">
+        <v>20170908</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="69" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
@@ -846,7 +907,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>11</v>
@@ -858,7 +919,7 @@
         <v>20170908</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H14" s="4"/>
     </row>
@@ -880,39 +941,39 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
-        <v>24</v>
+      <c r="A1" s="11" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="11"/>
+      <c r="A2" s="12"/>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="11"/>
+      <c r="A3" s="12"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="11"/>
+      <c r="A4" s="12"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="11"/>
+      <c r="A5" s="12"/>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="11"/>
+      <c r="A6" s="12"/>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="11"/>
+      <c r="A7" s="12"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="11"/>
+      <c r="A8" s="12"/>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="11"/>
+      <c r="A9" s="12"/>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="11"/>
+      <c r="A10" s="12"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="11"/>
+      <c r="A11" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/20170908周报/技术支撑服务人员周报日报-20170908.xlsx
+++ b/20170908周报/技术支撑服务人员周报日报-20170908.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\weekReport\20170908周报\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\周报\weekReport\20170908周报\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="32">
   <si>
     <t>项目名称</t>
   </si>
@@ -97,42 +97,51 @@
   </si>
   <si>
     <t>曾昌林</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1.个人铃音库修改界面和后台走审核流程
 2.登录验证码
 3.配置项多台服务器刷新
 4.铃音订购bug修改</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1.查看Migu2.0项目相关组件
 2.分析现已有的数据模型
 3.分析模型转换器的转换流程
 4.记录Redis缓存CacheKey的生成规则</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>李春荣</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1.修改bug
 2.代码优化
 3.熟悉模板</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>代码</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.视频彩铃接口上线
+2.咪咕星召唤活动接口开发</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,12 +152,30 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
@@ -175,17 +202,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -242,48 +258,46 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -627,304 +641,349 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F12" sqref="F2:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.375" customWidth="1"/>
-    <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="15.625" customWidth="1"/>
-    <col min="4" max="4" width="15.75" customWidth="1"/>
-    <col min="5" max="5" width="21.625" customWidth="1"/>
-    <col min="6" max="6" width="23.125" customWidth="1"/>
-    <col min="7" max="7" width="48.5" customWidth="1"/>
-    <col min="8" max="8" width="53.75" customWidth="1"/>
+    <col min="1" max="1" width="16.375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="9" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="15.75" style="9" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="23.125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="48.5" style="9" customWidth="1"/>
+    <col min="8" max="8" width="53.75" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="49.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
+      <c r="D2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="6">
+        <v>20170904</v>
+      </c>
+      <c r="F2" s="6">
+        <v>20170908</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" spans="1:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6">
+        <v>20170904</v>
+      </c>
+      <c r="F3" s="6">
+        <v>20170908</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
+      <c r="D4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="6">
+        <v>20170904</v>
+      </c>
+      <c r="F4" s="6">
+        <v>20170908</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="7"/>
+      <c r="D5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="6">
+        <v>20170904</v>
+      </c>
+      <c r="F5" s="6">
+        <v>20170908</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="7"/>
+      <c r="D6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="6">
+        <v>20170904</v>
+      </c>
+      <c r="F6" s="6">
+        <v>20170908</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="6">
+        <v>20170904</v>
+      </c>
+      <c r="F7" s="6">
+        <v>20170908</v>
+      </c>
       <c r="G7" s="10"/>
-      <c r="H7" s="7"/>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="B8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="7"/>
+      <c r="D8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="6">
+        <v>20170904</v>
+      </c>
+      <c r="F8" s="6">
+        <v>20170908</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="8" t="s">
+      <c r="B9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="7"/>
+      <c r="D9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="6">
+        <v>20170904</v>
+      </c>
+      <c r="F9" s="6">
+        <v>20170908</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="8" t="s">
+      <c r="B10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="7"/>
+      <c r="D10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="6">
+        <v>20170904</v>
+      </c>
+      <c r="F10" s="6">
+        <v>20170908</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="B11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="D11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="6">
+        <v>20170904</v>
+      </c>
+      <c r="F11" s="6">
+        <v>20170908</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="B12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="4">
-        <v>20170904</v>
-      </c>
-      <c r="F12" s="4">
-        <v>20170908</v>
-      </c>
-      <c r="G12" s="9" t="s">
+      <c r="D12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="6">
+        <v>20170904</v>
+      </c>
+      <c r="F12" s="6">
+        <v>20170908</v>
+      </c>
+      <c r="G12" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="4"/>
+      <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="B13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="4">
-        <v>20170904</v>
-      </c>
-      <c r="F13" s="4">
-        <v>20170908</v>
-      </c>
-      <c r="G13" s="9" t="s">
+      <c r="D13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="6">
+        <v>20170904</v>
+      </c>
+      <c r="F13" s="6">
+        <v>20170908</v>
+      </c>
+      <c r="G13" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="69" x14ac:dyDescent="0.15">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="B14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="4">
-        <v>20170904</v>
-      </c>
-      <c r="F14" s="4">
-        <v>20170908</v>
-      </c>
-      <c r="G14" s="9" t="s">
+      <c r="D14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="6">
+        <v>20170904</v>
+      </c>
+      <c r="F14" s="6">
+        <v>20170908</v>
+      </c>
+      <c r="G14" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="H14" s="4"/>
+      <c r="H14" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -941,45 +1000,45 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="12"/>
+      <c r="A2" s="2"/>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="12"/>
+      <c r="A3" s="2"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="12"/>
+      <c r="A4" s="2"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="12"/>
+      <c r="A5" s="2"/>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="12"/>
+      <c r="A6" s="2"/>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="12"/>
+      <c r="A7" s="2"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="12"/>
+      <c r="A8" s="2"/>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="12"/>
+      <c r="A9" s="2"/>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="12"/>
+      <c r="A10" s="2"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="12"/>
+      <c r="A11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A11"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/20170908周报/技术支撑服务人员周报日报-20170908.xlsx
+++ b/20170908周报/技术支撑服务人员周报日报-20170908.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\周报\weekReport\20170908周报\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="13050"/>
+    <workbookView windowWidth="24180" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
   <si>
     <t>项目名称</t>
   </si>
@@ -63,12 +58,22 @@
     <t>杜智恒</t>
   </si>
   <si>
+    <t xml:space="preserve">1.完成网关项目第三阶段 缓存前置功能                         2.包初始化(性能调优)                                                 </t>
+  </si>
+  <si>
+    <t>代码</t>
+  </si>
+  <si>
     <t>咪咕音乐后台</t>
   </si>
   <si>
     <t>凌河源</t>
   </si>
   <si>
+    <t>1.视频彩铃接口上线
+2.咪咕星召唤活动接口开发</t>
+  </si>
+  <si>
     <t>陆晨曦</t>
   </si>
   <si>
@@ -93,55 +98,43 @@
     <t>张文韬</t>
   </si>
   <si>
-    <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
+    <t>1.查看Migu2.0项目相关组件
+2.分析现已有的数据模型
+3.分析模型转换器的转换流程
+4.记录Redis缓存CacheKey的生成规则</t>
+  </si>
+  <si>
+    <t>李春荣</t>
+  </si>
+  <si>
+    <t>1.修改bug
+2.代码优化
+3.熟悉模板</t>
   </si>
   <si>
     <t>曾昌林</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1.个人铃音库修改界面和后台走审核流程
 2.登录验证码
 3.配置项多台服务器刷新
 4.铃音订购bug修改</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.查看Migu2.0项目相关组件
-2.分析现已有的数据模型
-3.分析模型转换器的转换流程
-4.记录Redis缓存CacheKey的生成规则</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>李春荣</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.修改bug
-2.代码优化
-3.熟悉模板</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.视频彩铃接口上线
-2.咪咕星召唤活动接口开发</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,20 +145,8 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -175,12 +156,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
@@ -201,13 +176,155 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -216,12 +333,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -255,13 +558,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -273,46 +818,90 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -361,7 +950,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -394,26 +983,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -446,23 +1018,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -633,412 +1188,417 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F12" sqref="F2:F12"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="16.375" style="9" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="9" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="15.75" style="9" customWidth="1"/>
-    <col min="5" max="5" width="21.625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="48.5" style="9" customWidth="1"/>
-    <col min="8" max="8" width="53.75" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="16.375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.75" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="23.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="48.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="53.75" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="49.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+    <row r="2" ht="49.15" customHeight="1" spans="1:8">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="7">
         <v>20170904</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="7">
         <v>20170908</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8"/>
-    </row>
-    <row r="3" spans="1:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" ht="34.9" customHeight="1" spans="1:8">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="7">
         <v>20170904</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="7">
         <v>20170908</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
+      <c r="G3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="H3" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" ht="34.5" spans="1:8">
+      <c r="A4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="7">
+        <v>20170904</v>
+      </c>
+      <c r="F4" s="7">
+        <v>20170908</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="5" t="s">
+    </row>
+    <row r="5" ht="34.5" spans="1:8">
+      <c r="A5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E5" s="7">
         <v>20170904</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F5" s="7">
         <v>20170908</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
+      <c r="G5" s="8"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" ht="34.5" spans="1:8">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="7">
+        <v>20170904</v>
+      </c>
+      <c r="F6" s="7">
+        <v>20170908</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" ht="34.5" spans="1:8">
+      <c r="A7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="7">
+        <v>20170904</v>
+      </c>
+      <c r="F7" s="7">
+        <v>20170908</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" ht="17.25" spans="1:8">
+      <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="B8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E8" s="7">
         <v>20170904</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F8" s="7">
         <v>20170908</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" ht="17.25" spans="1:8">
+      <c r="A9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="C9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E9" s="7">
         <v>20170904</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F9" s="7">
         <v>20170908</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="G9" s="8"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" ht="17.25" spans="1:8">
+      <c r="A10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="C10" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E10" s="7">
         <v>20170904</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F10" s="7">
         <v>20170908</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="G10" s="8"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" ht="17.25" spans="1:8">
+      <c r="A11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="C11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E11" s="7">
         <v>20170904</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F11" s="7">
         <v>20170908</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" ht="68.1" customHeight="1" spans="1:8">
+      <c r="A12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="C12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E12" s="7">
         <v>20170904</v>
       </c>
-      <c r="F9" s="6">
-        <v>20170908</v>
-      </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="6">
-        <v>20170904</v>
-      </c>
-      <c r="F10" s="6">
-        <v>20170908</v>
-      </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="8"/>
-    </row>
-    <row r="11" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="6">
-        <v>20170904</v>
-      </c>
-      <c r="F11" s="6">
-        <v>20170908</v>
-      </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="6">
-        <v>20170904</v>
-      </c>
-      <c r="F12" s="6">
+      <c r="F12" s="7">
         <v>20170908</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="6" t="s">
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" ht="51.75" spans="1:8">
+      <c r="A13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="7">
         <v>20170904</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="7">
         <v>20170908</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" ht="69" spans="1:8">
+      <c r="A14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="69" x14ac:dyDescent="0.15">
-      <c r="A14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="7">
         <v>20170904</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="7">
         <v>20170908</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="H14" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A11"/>
+      <selection activeCell="A1" sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1">
       <c r="A3" s="2"/>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1">
       <c r="A5" s="2"/>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:1">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:1">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:1">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:1">
       <c r="A11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A11"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/20170908周报/技术支撑服务人员周报日报-20170908.xlsx
+++ b/20170908周报/技术支撑服务人员周报日报-20170908.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="12630"/>
+    <workbookView windowWidth="24180" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
   <si>
     <t>项目名称</t>
   </si>
@@ -81,6 +81,10 @@
   </si>
   <si>
     <t>陈毅昌</t>
+  </si>
+  <si>
+    <t>1.解决线上问题：bar中text为title、数字专辑模板中actionURL变为itemId
+2.彩铃重构</t>
   </si>
   <si>
     <t>王琪</t>
@@ -129,10 +133,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -176,6 +180,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -183,16 +209,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -212,7 +246,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,14 +277,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -250,8 +292,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,69 +305,30 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -339,187 +343,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,6 +557,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -572,6 +585,32 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -592,52 +631,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,10 +660,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -674,136 +672,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1197,7 +1195,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="G11" sqref="G10:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1357,7 +1355,7 @@
       <c r="G6" s="8"/>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" ht="34.5" spans="1:8">
+    <row r="7" ht="51.75" spans="1:8">
       <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
@@ -1376,8 +1374,12 @@
       <c r="F7" s="7">
         <v>20170908</v>
       </c>
-      <c r="G7" s="10"/>
-      <c r="H7" s="9"/>
+      <c r="G7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="8" ht="17.25" spans="1:8">
       <c r="A8" s="6" t="s">
@@ -1387,7 +1389,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>11</v>
@@ -1409,7 +1411,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>11</v>
@@ -1431,7 +1433,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>11</v>
@@ -1453,7 +1455,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>11</v>
@@ -1475,7 +1477,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>11</v>
@@ -1487,7 +1489,7 @@
         <v>20170908</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H12" s="7"/>
     </row>
@@ -1499,7 +1501,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>11</v>
@@ -1511,7 +1513,7 @@
         <v>20170908</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>14</v>
@@ -1525,7 +1527,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>11</v>
@@ -1537,7 +1539,7 @@
         <v>20170908</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H14" s="7"/>
     </row>
@@ -1561,7 +1563,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/20170908周报/技术支撑服务人员周报日报-20170908.xlsx
+++ b/20170908周报/技术支撑服务人员周报日报-20170908.xlsx
@@ -83,7 +83,7 @@
     <t>陈毅昌</t>
   </si>
   <si>
-    <t>1.解决线上问题：bar中text为title、数字专辑模板中actionURL变为itemId
+    <t>1.解决线上问题
 2.彩铃重构</t>
   </si>
   <si>
@@ -133,10 +133,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -180,6 +180,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -187,6 +195,41 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -194,39 +237,25 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -246,33 +275,33 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -292,37 +321,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,181 +343,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,6 +557,80 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -580,90 +654,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -672,136 +672,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1195,7 +1195,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G11" sqref="G10:G11"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1355,7 +1355,7 @@
       <c r="G6" s="8"/>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" ht="51.75" spans="1:8">
+    <row r="7" ht="34.5" spans="1:8">
       <c r="A7" s="6" t="s">
         <v>8</v>
       </c>

--- a/20170908周报/技术支撑服务人员周报日报-20170908.xlsx
+++ b/20170908周报/技术支撑服务人员周报日报-20170908.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
   <si>
     <t>项目名称</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>北京烽火</t>
+  </si>
+  <si>
+    <t>1.视频彩铃上线问题解决                                            2.解决数字专辑标签问题</t>
   </si>
   <si>
     <t>杜智恒</t>
@@ -133,10 +136,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -179,6 +182,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -187,6 +195,42 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -194,6 +238,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -202,35 +247,24 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,85 +278,54 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,19 +346,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,79 +508,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,73 +520,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,6 +562,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -583,24 +610,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -612,21 +621,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -654,16 +648,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -672,136 +675,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -913,7 +916,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1195,7 +1198,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1256,7 +1259,9 @@
       <c r="F2" s="7">
         <v>20170908</v>
       </c>
-      <c r="G2" s="8"/>
+      <c r="G2" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="H2" s="9"/>
     </row>
     <row r="3" ht="34.9" customHeight="1" spans="1:8">
@@ -1267,7 +1272,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>11</v>
@@ -1279,21 +1284,21 @@
         <v>20170908</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" ht="34.5" spans="1:8">
       <c r="A4" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>11</v>
@@ -1305,10 +1310,10 @@
         <v>20170908</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" ht="34.5" spans="1:8">
@@ -1319,7 +1324,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>11</v>
@@ -1341,7 +1346,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>11</v>
@@ -1363,7 +1368,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>11</v>
@@ -1375,21 +1380,21 @@
         <v>20170908</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" ht="17.25" spans="1:8">
       <c r="A8" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>11</v>
@@ -1405,13 +1410,13 @@
     </row>
     <row r="9" ht="17.25" spans="1:8">
       <c r="A9" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>11</v>
@@ -1427,13 +1432,13 @@
     </row>
     <row r="10" ht="17.25" spans="1:8">
       <c r="A10" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>11</v>
@@ -1449,13 +1454,13 @@
     </row>
     <row r="11" ht="17.25" spans="1:8">
       <c r="A11" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>11</v>
@@ -1471,13 +1476,13 @@
     </row>
     <row r="12" ht="68.1" customHeight="1" spans="1:8">
       <c r="A12" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>11</v>
@@ -1489,19 +1494,19 @@
         <v>20170908</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H12" s="7"/>
     </row>
     <row r="13" ht="51.75" spans="1:8">
       <c r="A13" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>11</v>
@@ -1513,21 +1518,21 @@
         <v>20170908</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" ht="69" spans="1:8">
       <c r="A14" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>11</v>
@@ -1539,7 +1544,7 @@
         <v>20170908</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H14" s="7"/>
     </row>
@@ -1563,7 +1568,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/20170908周报/技术支撑服务人员周报日报-20170908.xlsx
+++ b/20170908周报/技术支撑服务人员周报日报-20170908.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
-  <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13046\Desktop\GG\weekReport\20170908周报\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13056"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="38">
   <si>
     <t>项目名称</t>
   </si>
@@ -142,11 +137,20 @@
     <t>代码</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>代码</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1演唱会状态，明星打榜bug修复
+2灰度系统-健康检查分析-srs</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -273,12 +277,6 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -304,6 +302,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -614,359 +618,363 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.375" style="9" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="9" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="15.75" style="9" customWidth="1"/>
-    <col min="5" max="5" width="21.625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="48.5" style="9" customWidth="1"/>
-    <col min="8" max="8" width="53.75" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="16.33203125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="23.109375" style="7" customWidth="1"/>
+    <col min="7" max="7" width="48.44140625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="53.77734375" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="49.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:8" ht="49.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="6">
-        <v>20170904</v>
-      </c>
-      <c r="F2" s="6">
-        <v>20170908</v>
-      </c>
-      <c r="G2" s="7" t="s">
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="4">
+        <v>20170904</v>
+      </c>
+      <c r="F2" s="4">
+        <v>20170908</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="8"/>
-    </row>
-    <row r="3" spans="1:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="6">
-        <v>20170904</v>
-      </c>
-      <c r="F3" s="6">
-        <v>20170908</v>
-      </c>
-      <c r="G3" s="7" t="s">
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4">
+        <v>20170904</v>
+      </c>
+      <c r="F3" s="4">
+        <v>20170908</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="6">
-        <v>20170904</v>
-      </c>
-      <c r="F4" s="6">
-        <v>20170908</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4">
+        <v>20170904</v>
+      </c>
+      <c r="F4" s="4">
+        <v>20170908</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="6">
-        <v>20170904</v>
-      </c>
-      <c r="F5" s="6">
-        <v>20170908</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="4">
+        <v>20170904</v>
+      </c>
+      <c r="F5" s="4">
+        <v>20170908</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="6">
-        <v>20170904</v>
-      </c>
-      <c r="F6" s="6">
-        <v>20170908</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
+      <c r="D6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="4">
+        <v>20170904</v>
+      </c>
+      <c r="F6" s="4">
+        <v>20170908</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="6">
-        <v>20170904</v>
-      </c>
-      <c r="F7" s="6">
-        <v>20170908</v>
-      </c>
-      <c r="G7" s="10" t="s">
+      <c r="D7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="4">
+        <v>20170904</v>
+      </c>
+      <c r="F7" s="4">
+        <v>20170908</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="6">
-        <v>20170904</v>
-      </c>
-      <c r="F8" s="6">
-        <v>20170908</v>
-      </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
+      <c r="D8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="4">
+        <v>20170904</v>
+      </c>
+      <c r="F8" s="4">
+        <v>20170908</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="11" t="s">
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="6">
-        <v>20170904</v>
-      </c>
-      <c r="F9" s="6">
-        <v>20170908</v>
-      </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
+      <c r="D9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="4">
+        <v>20170904</v>
+      </c>
+      <c r="F9" s="4">
+        <v>20170908</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="6">
-        <v>20170904</v>
-      </c>
-      <c r="F10" s="6">
-        <v>20170908</v>
-      </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="8"/>
-    </row>
-    <row r="11" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="6" t="s">
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="4">
+        <v>20170904</v>
+      </c>
+      <c r="F10" s="4">
+        <v>20170908</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="6">
-        <v>20170904</v>
-      </c>
-      <c r="F11" s="6">
-        <v>20170908</v>
-      </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:8" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="6" t="s">
+      <c r="D11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="4">
+        <v>20170904</v>
+      </c>
+      <c r="F11" s="4">
+        <v>20170908</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="6">
-        <v>20170904</v>
-      </c>
-      <c r="F12" s="6">
-        <v>20170908</v>
-      </c>
-      <c r="G12" s="12" t="s">
+      <c r="D12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="4">
+        <v>20170904</v>
+      </c>
+      <c r="F12" s="4">
+        <v>20170908</v>
+      </c>
+      <c r="G12" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A13" s="6" t="s">
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" ht="52.2" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="B13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="6">
-        <v>20170904</v>
-      </c>
-      <c r="F13" s="6">
-        <v>20170908</v>
-      </c>
-      <c r="G13" s="12" t="s">
+      <c r="D13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="4">
+        <v>20170904</v>
+      </c>
+      <c r="F13" s="4">
+        <v>20170908</v>
+      </c>
+      <c r="G13" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="69" x14ac:dyDescent="0.15">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:8" ht="69.599999999999994" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="B14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="6">
-        <v>20170904</v>
-      </c>
-      <c r="F14" s="6">
-        <v>20170908</v>
-      </c>
-      <c r="G14" s="12" t="s">
+      <c r="D14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="4">
+        <v>20170904</v>
+      </c>
+      <c r="F14" s="4">
+        <v>20170908</v>
+      </c>
+      <c r="G14" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="6"/>
+      <c r="H14" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -983,42 +991,42 @@
       <selection sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="2"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="2"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="2"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="2"/>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12"/>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/20170908周报/技术支撑服务人员周报日报-20170908.xlsx
+++ b/20170908周报/技术支撑服务人员周报日报-20170908.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\comm\week\weekReport\20170908周报\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13056"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23250" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="42">
   <si>
     <t>项目名称</t>
   </si>
@@ -135,22 +140,39 @@
   </si>
   <si>
     <t>代码</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>代码</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1演唱会状态，明星打榜bug修复
 2灰度系统-健康检查分析-srs</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京烽火</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘韬</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈平</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.熟悉模板代码与框架
+2.视角接口优化</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -167,6 +189,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -206,12 +234,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -275,39 +297,42 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -371,7 +396,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -404,9 +429,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -439,6 +481,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -615,369 +674,392 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="23.109375" style="7" customWidth="1"/>
-    <col min="7" max="7" width="48.44140625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="53.77734375" style="7" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="16.375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="9" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="15.75" style="9" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="23.125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="48.5" style="9" customWidth="1"/>
+    <col min="8" max="8" width="53.75" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="49.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:8" ht="49.15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="4">
-        <v>20170904</v>
-      </c>
-      <c r="F2" s="4">
-        <v>20170908</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="D2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="6">
+        <v>20170904</v>
+      </c>
+      <c r="F2" s="6">
+        <v>20170908</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" spans="1:8" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="4">
-        <v>20170904</v>
-      </c>
-      <c r="F3" s="4">
-        <v>20170908</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="6">
+        <v>20170904</v>
+      </c>
+      <c r="F3" s="6">
+        <v>20170908</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="4">
-        <v>20170904</v>
-      </c>
-      <c r="F4" s="4">
-        <v>20170908</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="D4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="6">
+        <v>20170904</v>
+      </c>
+      <c r="F4" s="6">
+        <v>20170908</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="4">
-        <v>20170904</v>
-      </c>
-      <c r="F5" s="4">
-        <v>20170908</v>
-      </c>
-      <c r="G5" s="5" t="s">
+      <c r="D5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="6">
+        <v>20170904</v>
+      </c>
+      <c r="F5" s="6">
+        <v>20170908</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="4">
-        <v>20170904</v>
-      </c>
-      <c r="F6" s="4">
-        <v>20170908</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="D6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="6">
+        <v>20170904</v>
+      </c>
+      <c r="F6" s="6">
+        <v>20170908</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="B7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="4">
-        <v>20170904</v>
-      </c>
-      <c r="F7" s="4">
-        <v>20170908</v>
-      </c>
-      <c r="G7" s="8" t="s">
+      <c r="D7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="6">
+        <v>20170904</v>
+      </c>
+      <c r="F7" s="6">
+        <v>20170908</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="B8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="4">
-        <v>20170904</v>
-      </c>
-      <c r="F8" s="4">
-        <v>20170908</v>
-      </c>
-      <c r="G8" s="5" t="s">
+      <c r="D8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="6">
+        <v>20170904</v>
+      </c>
+      <c r="F8" s="6">
+        <v>20170908</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="9" t="s">
+      <c r="B9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="4">
-        <v>20170904</v>
-      </c>
-      <c r="F9" s="4">
-        <v>20170908</v>
-      </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="D9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="6">
+        <v>20170904</v>
+      </c>
+      <c r="F9" s="6">
+        <v>20170908</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="9" t="s">
+      <c r="B10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="4">
-        <v>20170904</v>
-      </c>
-      <c r="F10" s="4">
-        <v>20170908</v>
-      </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="D10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="6">
+        <v>20170904</v>
+      </c>
+      <c r="F10" s="6">
+        <v>20170908</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A11" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="B11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="4">
-        <v>20170904</v>
-      </c>
-      <c r="F11" s="4">
-        <v>20170908</v>
-      </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="D11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="6">
+        <v>20170904</v>
+      </c>
+      <c r="F11" s="6">
+        <v>20170908</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="B12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="4">
-        <v>20170904</v>
-      </c>
-      <c r="F12" s="4">
-        <v>20170908</v>
-      </c>
-      <c r="G12" s="10" t="s">
+      <c r="D12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="6">
+        <v>20170904</v>
+      </c>
+      <c r="F12" s="6">
+        <v>20170908</v>
+      </c>
+      <c r="G12" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:8" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
+      <c r="A13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="B13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="4">
-        <v>20170904</v>
-      </c>
-      <c r="F13" s="4">
-        <v>20170908</v>
-      </c>
-      <c r="G13" s="10" t="s">
+      <c r="D13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="6">
+        <v>20170904</v>
+      </c>
+      <c r="F13" s="6">
+        <v>20170908</v>
+      </c>
+      <c r="G13" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="4" t="s">
+      <c r="H13" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="69.599999999999994" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:8" ht="69" x14ac:dyDescent="0.15">
+      <c r="A14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="B14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="4">
-        <v>20170904</v>
-      </c>
-      <c r="F14" s="4">
-        <v>20170908</v>
-      </c>
-      <c r="G14" s="10" t="s">
+      <c r="D14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="6">
+        <v>20170904</v>
+      </c>
+      <c r="F14" s="6">
+        <v>20170908</v>
+      </c>
+      <c r="G14" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="4"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="6">
+        <v>20170904</v>
+      </c>
+      <c r="F15" s="12">
+        <v>20170908</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -991,48 +1073,48 @@
       <selection sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A11"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/20170908周报/技术支撑服务人员周报日报-20170908.xlsx
+++ b/20170908周报/技术支撑服务人员周报日报-20170908.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\comm\week\weekReport\20170908周报\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23250" windowHeight="13050"/>
   </bookViews>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="43">
   <si>
     <t>项目名称</t>
   </si>
@@ -168,11 +163,16 @@
 2.视角接口优化</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>1.演唱会互动我的排名和贡献值排行榜接口需求方案调整及性能优化调测
+2.缓存前置管理功能后台开发调测</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -299,12 +299,6 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -333,6 +327,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -396,7 +396,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -429,26 +429,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -481,23 +464,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -677,384 +643,388 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.375" style="9" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="9" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="15.75" style="9" customWidth="1"/>
-    <col min="5" max="5" width="21.625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="48.5" style="9" customWidth="1"/>
-    <col min="8" max="8" width="53.75" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="16.375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="7" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="15.75" style="7" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="23.125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="48.5" style="7" customWidth="1"/>
+    <col min="8" max="8" width="53.75" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="49.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="6">
-        <v>20170904</v>
-      </c>
-      <c r="F2" s="6">
-        <v>20170908</v>
-      </c>
-      <c r="G2" s="7" t="s">
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="4">
+        <v>20170904</v>
+      </c>
+      <c r="F2" s="4">
+        <v>20170908</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="8"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="6">
-        <v>20170904</v>
-      </c>
-      <c r="F3" s="6">
-        <v>20170908</v>
-      </c>
-      <c r="G3" s="7" t="s">
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="4">
+        <v>20170904</v>
+      </c>
+      <c r="F3" s="4">
+        <v>20170908</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="6">
-        <v>20170904</v>
-      </c>
-      <c r="F4" s="6">
-        <v>20170908</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="4">
+        <v>20170904</v>
+      </c>
+      <c r="F4" s="4">
+        <v>20170908</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="6">
-        <v>20170904</v>
-      </c>
-      <c r="F5" s="6">
-        <v>20170908</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="4">
+        <v>20170904</v>
+      </c>
+      <c r="F5" s="4">
+        <v>20170908</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="6">
-        <v>20170904</v>
-      </c>
-      <c r="F6" s="6">
-        <v>20170908</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
+      <c r="D6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="4">
+        <v>20170904</v>
+      </c>
+      <c r="F6" s="4">
+        <v>20170908</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="6">
-        <v>20170904</v>
-      </c>
-      <c r="F7" s="6">
-        <v>20170908</v>
-      </c>
-      <c r="G7" s="10" t="s">
+      <c r="D7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="4">
+        <v>20170904</v>
+      </c>
+      <c r="F7" s="4">
+        <v>20170908</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="6">
-        <v>20170904</v>
-      </c>
-      <c r="F8" s="6">
-        <v>20170908</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="D8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="4">
+        <v>20170904</v>
+      </c>
+      <c r="F8" s="4">
+        <v>20170908</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="11" t="s">
+      <c r="B9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="6">
-        <v>20170904</v>
-      </c>
-      <c r="F9" s="6">
-        <v>20170908</v>
-      </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
+      <c r="D9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="4">
+        <v>20170904</v>
+      </c>
+      <c r="F9" s="4">
+        <v>20170908</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="6">
-        <v>20170904</v>
-      </c>
-      <c r="F10" s="6">
-        <v>20170908</v>
-      </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="8"/>
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="4">
+        <v>20170904</v>
+      </c>
+      <c r="F10" s="4">
+        <v>20170908</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="6">
-        <v>20170904</v>
-      </c>
-      <c r="F11" s="6">
-        <v>20170908</v>
-      </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+      <c r="D11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="4">
+        <v>20170904</v>
+      </c>
+      <c r="F11" s="4">
+        <v>20170908</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="6">
-        <v>20170904</v>
-      </c>
-      <c r="F12" s="6">
-        <v>20170908</v>
-      </c>
-      <c r="G12" s="12" t="s">
+      <c r="D12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="4">
+        <v>20170904</v>
+      </c>
+      <c r="F12" s="4">
+        <v>20170908</v>
+      </c>
+      <c r="G12" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="6"/>
+      <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="B13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="6">
-        <v>20170904</v>
-      </c>
-      <c r="F13" s="6">
-        <v>20170908</v>
-      </c>
-      <c r="G13" s="12" t="s">
+      <c r="D13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="4">
+        <v>20170904</v>
+      </c>
+      <c r="F13" s="4">
+        <v>20170908</v>
+      </c>
+      <c r="G13" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="6" t="s">
+      <c r="H13" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="69" x14ac:dyDescent="0.15">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="B14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="6">
-        <v>20170904</v>
-      </c>
-      <c r="F14" s="6">
-        <v>20170908</v>
-      </c>
-      <c r="G14" s="12" t="s">
+      <c r="D14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="4">
+        <v>20170904</v>
+      </c>
+      <c r="F14" s="4">
+        <v>20170908</v>
+      </c>
+      <c r="G14" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="6"/>
+      <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="6">
-        <v>20170904</v>
-      </c>
-      <c r="F15" s="12">
-        <v>20170908</v>
-      </c>
-      <c r="G15" s="12" t="s">
+      <c r="E15" s="4">
+        <v>20170904</v>
+      </c>
+      <c r="F15" s="10">
+        <v>20170908</v>
+      </c>
+      <c r="G15" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="H15" s="11" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1076,39 +1046,39 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="12" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2"/>
+      <c r="A2" s="13"/>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
+      <c r="A3" s="13"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
+      <c r="A4" s="13"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2"/>
+      <c r="A5" s="13"/>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
+      <c r="A6" s="13"/>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
+      <c r="A7" s="13"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="2"/>
+      <c r="A8" s="13"/>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="2"/>
+      <c r="A9" s="13"/>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="2"/>
+      <c r="A10" s="13"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="2"/>
+      <c r="A11" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
